--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560345/JX560345_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560345/JX560345_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89316789664</v>
+        <v>45441.83343514141</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1621_1623insca']</t>
+          <t>['1723_1775insccttcaccaccgaaattatttagcgacaaccatagacagcggcctaacactc', '1670_1794insgaacaacccttgcaccctatggcggcatagaccctcgcattttgttggcgtttcccagcctctcatcccttctgtgcgccacaccaagagtggcggagtgcatttaccagaatagtgagatata', '1748_1879del', '1634_1735del', '1576_1650inscactgcgaacgccccgcttgcgtctttccatccaagggacagccactcggtcggatctaccgctagcgccgaac']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89316792559</v>
+        <v>45441.83343518204</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['161_164instag']</t>
+          <t>['185_327del', '169_240del', '178_304del', '204_248del', '216_252del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89316795451</v>
+        <v>45441.83343520518</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['5599_5599del']</t>
+          <t>['5533_5603instccgtggtcgtgtcggtcaatcgttgtgatcgcactttggtcatcatggtgcttagcaagctcgactatt', '5523_5644insaggttacgccgtgaatcggaaaagcttggtttatacgattgatggatcgtttggtatcctcataaaagtaagacgcttcgtgcaaaatacgaccgtgcacccaatccggacagagtctaga', '5538_5620del', '5580_5653insaattgatatactcgatgagtccccgctagcaaggctgtagatcaagcggagatgcgctggggtctgttccagt', '5553_5675del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89316798346</v>
+        <v>45441.83343523935</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1731_1735del']</t>
+          <t>['1689_1804insataaacgggagcttgaactccacaagcccactggtccgtctcaagcggtggaggattgcacaatcgtcttggtatatgtccgcctaccacgcatgccacagaatatcatcggatc', '1753_1817insgatcggttatctactacttattttcggacaggtccctgtactgagctatagctaaaaaagctga', '1701_1746del', '1578_1617inscggcgagatgcatttggtaggaatacacggagacgtcgt', '1659_1713instgccaatccaagctgagaggcctcccacacctcgaggaccggttaaccccggga']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['198_199del']</t>
+          <t>['226_250del', '226_284del', '238_374insatcccgctaaaagaacataactctagggttagctataggttcaacatgaccattagccttctatttggtcccgctagtcggctcaccgcttacatcggagaattgggtaccggctgcatgtttagtgcaacccttc', '159_211del', '191_331instttcaaccgctcgtacggcaagtactgcgcacagagcaggattcacgccttacccagatcaatgcgtggagagtccagtaactagtacaggacggtcaagtacaaaagatacgaatgtgtcacgctagcgctccgacaag']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89316800661</v>
+        <v>45441.83343526827</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1803t&gt;a']</t>
+          <t>['1615_1693insatttttccgttctttcgcattggcaaaaacagcctgtgcaaacaaggtcaaactaccgagggaaagcgaacgatactg', '1603_1748del', '1773_1848instcgcgctatctggacgatttgaactgtttaccacttgcagtagcctttctgaggagcttatgaagcgtatcgaca', '1660_1717del', '1668_1684insttgacccgatccatgg']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['5588_5593insatgga']</t>
+          <t>['5545_5673del', '5528_5570del', '5608_5747insagttggtagtcggacaaaaagcaactgggttgcgggtacggaggtgcatgctggcgatcgcagcacaccatatctaaggtctgggcgccagccaaagtaagattcgatgaaggtcgtagatgtagtgtctaaaattggg', '5602_5748inscgtatgctattatttgttgcgataagcgttcatcagcacccgtgcggcgtaaaagagcagatccttggagagacctggatgcgctcgtacattgtgagtccctactatttaaaggttgataagtcaccttcatctagtgtgtgtat', '5546_5602instgtcattcagtgaacataatgatatcgccagaagtggtataatgatgcacgccacc']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89316803555</v>
+        <v>45441.83343530473</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['201_202del']</t>
+          <t>['170_306insatcaaacggtctcgacaacgacggtctaactaagtgagctggaggtaggcggacagtttaggatagcgttgcgttgcacgggcaaccctagataccacaacgaagtactgaaccacgctcggcatgacggtctgcc', '212_282insaaacgagggaaggtggtgccgatcctgtaaccaccctaaccgctcattccaacgatggatagtctcgaac', '246_279del', '189_320inscacaacgacgtgtcgtctacgcgaccaggcgcccgggatgcgagcgaggctcagattaacctcccgtggtttctgcagctagcaacacaaagtcgccgcgtccgcccgttagcggggcatgatcggtgatt', '231_319del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['5526_5526del']</t>
+          <t>['5518_5654del', '5592_5671inscggaacagagatcacctccccgaggttcaagtaattggatgacaaggaaaaaagtatcgggtttaaaaggcctgtctgg', '5526_5542insgaaacatgccgttctc', '5532_5591del', '5585_5729instgatgtttccgtcgtacccttaccgacgcgcttagttcaaccacgattgaagacttgattgaccggctaaatccaagttcttcggcatttgtgcggagacctcaggggtgtctagccgctgtgatgggaattagctgtggttgt']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89316805869</v>
+        <v>45441.83343533369</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1663_1664insg']</t>
+          <t>['1598_1659insgtcactaccatatttttatccgccagaagcgacctacacgtgagactcaggtgtgtgtgcg', '1688_1710del', '1661_1748del', '1763_1814instggggaggagctcttgcgcatactatgaaggtacgcggtttcaccgtatcg', '1750_1774insttaactcggcacgaatctttgaat']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['162g&gt;a']</t>
+          <t>['190_288insatgaatgggactagtgttccaattgacgttgctcgaagagaggtggtgatcctcttctcactccagacctatccgagttcgtcgtggtataccccact', '217_352instagctttaccaaggttatatcgcacagcacccttgtagtcttctaggacaccaatgggcttcatcttaaggctacgttgttcgctctaaccacaagaagcttcgagatgaggtacaaggggaatccctaaaccct', '169_183inscttcccggatccta', '221_248insggacactacgtccttaaaaatgccatg', '164_286del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['5579_5580insc']</t>
+          <t>['5511_5575del', '5564_5634inscacaactacacatgtcgtaaacgcagagaattcccgatgatgaaggccagactgttcacgtgtgaggatc', '5606_5752insacctctgcgactgtcgttcttagaagccactagtctagcgcttaatccttttccgtggcgcccgttaacgcgatccctcggcttatttcgggtctcttaccgaccccgcgacttacttcagagataagctagccaactcaagttgg', '5583_5631del', '5587_5691inscactcgcagcacaaacggtctcttgccaccggctggtttcgcctcgtcttctgttaatggttagtgccatgggcgcgggaacacgtgcccttcggcctcatacg']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89316808183</v>
+        <v>45441.83343536839</v>
       </c>
     </row>
   </sheetData>
